--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494881B-0D58-074A-82C6-E9EA3BDE5AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0D5AB-53AA-4767-9590-6EE5F85B27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -989,9 +989,23 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>PDD</t>
   </si>
   <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
     <t>C0009</t>
   </si>
   <si>
@@ -999,12 +1013,7 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>拼多多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1012,19 +1021,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1677,10 +1686,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1733,8 +1742,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1757,14 +1766,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1794,7 +1803,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1895,7 +1904,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1922,7 +1931,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,10 +1984,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2014,7 +2023,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2041,16 +2050,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,7 +2080,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,10 +2102,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,10 +2114,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,7 +2134,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2137,13 +2146,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2177,7 +2186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,19 +2230,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2258,7 +2267,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2270,10 +2279,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2304,19 +2313,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2332,20 +2341,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2353,10 +2356,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2365,7 +2380,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2379,7 +2394,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2392,14 +2407,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -2808,40 +2823,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="139" t="s">
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="139" t="s">
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="139" t="s">
         <v>154</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="138" t="s">
         <v>3</v>
       </c>
@@ -2857,24 +2872,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
@@ -2882,15 +2897,15 @@
         <v>1388770048</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="138" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="213" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="213" t="s">
         <v>10</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
@@ -2914,7 +2929,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="213" t="s">
         <v>236</v>
       </c>
@@ -2922,7 +2937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="217" t="s">
         <v>92</v>
       </c>
@@ -2930,8 +2945,11 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
@@ -2940,7 +2958,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="235" t="s">
         <v>222</v>
       </c>
@@ -2949,7 +2967,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
@@ -2958,7 +2976,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="236" t="s">
         <v>212</v>
       </c>
@@ -2967,7 +2985,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="219" t="s">
         <v>215</v>
       </c>
@@ -2976,7 +2994,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="221" t="s">
         <v>214</v>
       </c>
@@ -2985,7 +3003,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="114" t="s">
         <v>127</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
@@ -3058,7 +3076,7 @@
       <c r="L25" s="147"/>
       <c r="M25" s="147"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="96" t="s">
         <v>101</v>
       </c>
@@ -3082,7 +3100,7 @@
       <c r="L26" s="148"/>
       <c r="M26" s="148"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="96" t="s">
         <v>99</v>
       </c>
@@ -3106,7 +3124,7 @@
       <c r="L27" s="148"/>
       <c r="M27" s="148"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
@@ -3128,7 +3146,7 @@
       <c r="L28" s="148"/>
       <c r="M28" s="148"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="96" t="s">
         <v>237</v>
       </c>
@@ -3150,7 +3168,7 @@
       <c r="L29" s="148"/>
       <c r="M29" s="148"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="98" t="s">
         <v>106</v>
       </c>
@@ -3172,7 +3190,7 @@
       <c r="L30" s="148"/>
       <c r="M30" s="148"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="96" t="s">
         <v>105</v>
       </c>
@@ -3188,7 +3206,7 @@
       <c r="L31" s="148"/>
       <c r="M31" s="148"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
@@ -3204,7 +3222,7 @@
       <c r="L32" s="148"/>
       <c r="M32" s="148"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
@@ -3220,7 +3238,7 @@
       <c r="L33" s="148"/>
       <c r="M33" s="148"/>
     </row>
-    <row r="34" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="96" t="s">
         <v>261</v>
       </c>
@@ -3236,7 +3254,7 @@
       <c r="L34" s="148"/>
       <c r="M34" s="148"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="93" t="s">
         <v>111</v>
       </c>
@@ -3252,7 +3270,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="148"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="93" t="s">
         <v>140</v>
       </c>
@@ -3268,7 +3286,7 @@
       <c r="L36" s="148"/>
       <c r="M36" s="148"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="93" t="s">
         <v>260</v>
       </c>
@@ -3292,7 +3310,7 @@
       <c r="L37" s="148"/>
       <c r="M37" s="148"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="93" t="s">
         <v>266</v>
       </c>
@@ -3308,7 +3326,7 @@
       <c r="L38" s="148"/>
       <c r="M38" s="148"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
@@ -3324,7 +3342,7 @@
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
@@ -3340,7 +3358,7 @@
       <c r="L40" s="148"/>
       <c r="M40" s="148"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="93" t="s">
         <v>131</v>
       </c>
@@ -3364,7 +3382,7 @@
       <c r="L41" s="148"/>
       <c r="M41" s="148"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
@@ -3388,7 +3406,7 @@
       <c r="L42" s="148"/>
       <c r="M42" s="148"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="93" t="s">
         <v>130</v>
       </c>
@@ -3404,7 +3422,7 @@
       <c r="L43" s="148"/>
       <c r="M43" s="148"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>192</v>
       </c>
@@ -3422,7 +3440,7 @@
       <c r="L44" s="245"/>
       <c r="M44" s="245"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>233</v>
       </c>
@@ -3471,7 +3489,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="str">
         <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
         <v>Balance Sheet- Error</v>
@@ -3486,7 +3504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
@@ -3496,7 +3514,7 @@
       </c>
       <c r="E48" s="111"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>129</v>
       </c>
@@ -3506,7 +3524,7 @@
       </c>
       <c r="E49" s="111"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>111</v>
       </c>
@@ -3517,7 +3535,7 @@
       </c>
       <c r="E50" s="111"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
@@ -3527,7 +3545,7 @@
       </c>
       <c r="E51" s="111"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>39</v>
       </c>
@@ -3537,7 +3555,7 @@
       </c>
       <c r="E52" s="111"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>149</v>
       </c>
@@ -3548,7 +3566,7 @@
       </c>
       <c r="E53" s="111"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>243</v>
       </c>
@@ -3558,7 +3576,7 @@
       </c>
       <c r="E54" s="111"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>42</v>
       </c>
@@ -3569,7 +3587,7 @@
       </c>
       <c r="E55" s="111"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>43</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>114</v>
       </c>
@@ -3594,7 +3612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>45</v>
       </c>
@@ -3605,7 +3623,7 @@
       </c>
       <c r="E58" s="111"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3634,7 @@
       </c>
       <c r="E59" s="111"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
@@ -3627,7 +3645,7 @@
       </c>
       <c r="E60" s="111"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
@@ -3638,7 +3656,7 @@
       </c>
       <c r="E61" s="111"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
@@ -3649,7 +3667,7 @@
       </c>
       <c r="E62" s="111"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
@@ -3660,7 +3678,7 @@
       </c>
       <c r="E63" s="111"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>242</v>
       </c>
@@ -3670,7 +3688,7 @@
       </c>
       <c r="E64" s="111"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -3694,7 +3712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>113</v>
       </c>
@@ -3717,7 +3735,7 @@
       </c>
       <c r="E68" s="111"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
@@ -3728,7 +3746,7 @@
       </c>
       <c r="E69" s="111"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
@@ -3738,7 +3756,7 @@
       </c>
       <c r="E70" s="111"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
@@ -3749,7 +3767,7 @@
       </c>
       <c r="E71" s="111"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="241" t="s">
         <v>71</v>
       </c>
@@ -3759,85 +3777,85 @@
       </c>
       <c r="E72" s="244"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C76" s="118"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="82"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="118"/>
     </row>
-    <row r="82" spans="2:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>264</v>
       </c>
       <c r="C82" s="212"/>
     </row>
-    <row r="83" spans="2:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>265</v>
       </c>
       <c r="C83" s="212"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>231</v>
       </c>
@@ -3845,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>230</v>
       </c>
@@ -3856,15 +3874,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3873,15 +3891,15 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -3889,7 +3907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>120</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>247639205</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="103" t="s">
         <v>101</v>
       </c>
@@ -3928,7 +3946,7 @@
         <v>91723577</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="103" t="s">
         <v>229</v>
       </c>
@@ -3949,7 +3967,7 @@
         <v>97216866</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="103" t="s">
         <v>237</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>228</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>105</v>
       </c>
@@ -4006,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>160</v>
       </c>
@@ -4024,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="85" t="s">
         <v>192</v>
       </c>
@@ -4103,8 +4121,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4117,23 +4138,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -4142,7 +4163,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4157,68 +4178,68 @@
       <c r="G2" s="85"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>PDD</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>99.61</v>
+        <v>102.42</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>拼多多</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1388770048</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>138335.38448127999</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>142237.82831616001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
@@ -4237,14 +4258,14 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="85" t="s">
         <v>177</v>
       </c>
@@ -4261,15 +4282,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>0.13745211064815521</v>
+        <v>0.13735638062159219</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/USD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="137" t="s">
         <v>176</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
@@ -4288,7 +4309,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="120" t="s">
         <v>166</v>
       </c>
@@ -4302,7 +4323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="86" t="s">
         <v>234</v>
       </c>
@@ -4314,8 +4335,8 @@
       </c>
       <c r="F12" s="109"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>163</v>
       </c>
@@ -4326,7 +4347,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>172</v>
       </c>
@@ -4337,7 +4358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="86" t="s">
         <v>235</v>
       </c>
@@ -4361,8 +4382,8 @@
       </c>
       <c r="D17" s="173"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="140" t="s">
         <v>259</v>
       </c>
@@ -4377,12 +4398,12 @@
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="270" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.31349208619001007</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4392,22 +4413,22 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.53792983885341605</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.23703339703420548</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="274" t="s">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.71144720328873301</v>
       </c>
@@ -4415,27 +4436,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.23703339703420548</v>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.8589784908222882</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.375012872001208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="135" t="s">
+        <v>5.5304938606134115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.7762534813500148E-4</v>
       </c>
@@ -4444,10 +4465,10 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.877956603969388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23.539738704760499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="135" t="s">
         <v>257</v>
       </c>
@@ -4463,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="136" t="s">
         <v>258</v>
       </c>
@@ -4479,8 +4500,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="89" t="s">
         <v>6</v>
@@ -4495,50 +4516,50 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="286"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.512826015598691</v>
+        <v>40.246842345464231</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>72.897344481154477</v>
+        <v>72.418742884201265</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.662148253645519</v>
-      </c>
-      <c r="G29" s="285">
+        <v>47.349226288781445</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>63.388995201003901</v>
-      </c>
-      <c r="H29" s="285"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62.972819899305449</v>
+      </c>
+      <c r="H29" s="287"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="193" t="s">
         <v>207</v>
       </c>
       <c r="C32" s="219"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>208</v>
@@ -4548,7 +4569,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>209</v>
@@ -4559,14 +4580,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="193" t="s">
         <v>210</v>
       </c>
       <c r="C35" s="219"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>222</v>
@@ -4576,7 +4597,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>223</v>
@@ -4586,14 +4607,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="193" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="219"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>212</v>
@@ -4603,7 +4624,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>215</v>
@@ -4613,19 +4634,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="221" t="s">
         <v>214</v>
@@ -4635,886 +4656,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -5552,7 +5573,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -5582,13 +5603,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -5596,7 +5617,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -5604,7 +5625,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -5629,7 +5650,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="102" t="s">
         <v>9</v>
@@ -5658,7 +5679,7 @@
       <c r="L3" s="86"/>
       <c r="M3" s="86"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="102" t="s">
         <v>10</v>
@@ -5680,7 +5701,7 @@
       </c>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="114" t="s">
         <v>127</v>
@@ -5730,7 +5751,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="93" t="s">
         <v>11</v>
@@ -5781,7 +5802,7 @@
       </c>
       <c r="N6" s="86"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="95" t="s">
         <v>12</v>
@@ -5832,7 +5853,7 @@
       </c>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="96" t="s">
         <v>101</v>
@@ -5883,7 +5904,7 @@
       </c>
       <c r="N8" s="86"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="97" t="s">
         <v>98</v>
@@ -5934,7 +5955,7 @@
       </c>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="96" t="s">
         <v>99</v>
@@ -5985,7 +6006,7 @@
       </c>
       <c r="N10" s="86"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="96" t="s">
         <v>102</v>
@@ -6036,7 +6057,7 @@
       </c>
       <c r="N11" s="86"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>224</v>
@@ -6087,7 +6108,7 @@
       </c>
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="223" t="s">
         <v>225</v>
@@ -6138,7 +6159,7 @@
       </c>
       <c r="N13" s="86"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="223" t="s">
         <v>217</v>
@@ -6189,7 +6210,7 @@
       </c>
       <c r="N14" s="86"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="226" t="s">
         <v>226</v>
@@ -6240,7 +6261,7 @@
       </c>
       <c r="N15" s="86"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="96" t="s">
         <v>105</v>
@@ -6291,7 +6312,7 @@
       </c>
       <c r="N16" s="86"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="96" t="s">
         <v>237</v>
@@ -6342,7 +6363,7 @@
       </c>
       <c r="N17" s="86"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="93" t="s">
         <v>94</v>
@@ -6393,7 +6414,7 @@
       </c>
       <c r="N18" s="86"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="96" t="s">
         <v>100</v>
@@ -6444,7 +6465,7 @@
       </c>
       <c r="N19" s="86"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="96" t="s">
         <v>219</v>
@@ -6495,7 +6516,7 @@
       </c>
       <c r="N20" s="86"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="96" t="s">
         <v>103</v>
@@ -6546,7 +6567,7 @@
       </c>
       <c r="N21" s="86"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="97" t="s">
         <v>107</v>
@@ -6597,7 +6618,7 @@
       </c>
       <c r="N22" s="86"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="99" t="s">
         <v>108</v>
@@ -6648,7 +6669,7 @@
       </c>
       <c r="N23" s="86"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
         <v>109</v>
@@ -6699,7 +6720,7 @@
       </c>
       <c r="N24" s="86"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="229" t="s">
         <v>122</v>
@@ -6750,7 +6771,7 @@
       </c>
       <c r="N25" s="86"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="113" t="s">
         <v>128</v>
@@ -6801,7 +6822,7 @@
       </c>
       <c r="N26" s="86"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="93" t="s">
         <v>13</v>
@@ -6852,7 +6873,7 @@
       </c>
       <c r="N27" s="86"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="93" t="s">
         <v>111</v>
@@ -6903,7 +6924,7 @@
       </c>
       <c r="N28" s="86"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="93" t="s">
         <v>140</v>
@@ -6954,7 +6975,7 @@
       </c>
       <c r="N29" s="86"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="93" t="s">
         <v>260</v>
@@ -7005,7 +7026,7 @@
       </c>
       <c r="N30" s="86"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="93" t="s">
         <v>16</v>
@@ -7056,7 +7077,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="93" t="s">
         <v>17</v>
@@ -7107,7 +7128,7 @@
       </c>
       <c r="N32" s="86"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="93" t="s">
         <v>18</v>
@@ -7158,7 +7179,7 @@
       </c>
       <c r="N33" s="86"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="93" t="s">
         <v>131</v>
@@ -7209,7 +7230,7 @@
       </c>
       <c r="N34" s="86"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="93" t="s">
         <v>132</v>
@@ -7260,7 +7281,7 @@
       </c>
       <c r="N35" s="86"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="93" t="s">
         <v>130</v>
@@ -7311,7 +7332,7 @@
       </c>
       <c r="N36" s="86"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="93" t="s">
         <v>134</v>
@@ -7362,7 +7383,7 @@
       </c>
       <c r="N37" s="86"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
         <v>148</v>
@@ -7413,7 +7434,7 @@
       </c>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>245</v>
@@ -7431,7 +7452,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="86"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
         <v>93</v>
@@ -7482,7 +7503,7 @@
       </c>
       <c r="N40" s="86"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="93" t="s">
         <v>218</v>
@@ -7533,7 +7554,7 @@
       </c>
       <c r="N41" s="86"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="93" t="s">
         <v>104</v>
@@ -7584,7 +7605,7 @@
       </c>
       <c r="N42" s="86"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="93" t="s">
         <v>116</v>
@@ -7635,7 +7656,7 @@
       </c>
       <c r="N43" s="86"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="93" t="s">
         <v>123</v>
@@ -7686,7 +7707,7 @@
       </c>
       <c r="N44" s="86"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="93" t="s">
         <v>220</v>
@@ -7737,7 +7758,7 @@
       </c>
       <c r="N45" s="86"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="93" t="s">
         <v>118</v>
@@ -7788,12 +7809,12 @@
       </c>
       <c r="N46" s="86"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -7808,7 +7829,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="86"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="266" t="s">
         <v>252</v>
@@ -7859,7 +7880,7 @@
       </c>
       <c r="N48" s="86"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="93" t="s">
         <v>253</v>
@@ -7910,7 +7931,7 @@
       </c>
       <c r="N49" s="86"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="93" t="s">
         <v>254</v>
@@ -7961,7 +7982,7 @@
       </c>
       <c r="N50" s="86"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="93" t="s">
         <v>244</v>
@@ -8012,7 +8033,7 @@
       </c>
       <c r="N51" s="86"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="101" t="s">
         <v>247</v>
@@ -8029,7 +8050,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
         <v>248</v>
@@ -8079,7 +8100,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="93" t="s">
         <v>115</v>
@@ -8129,7 +8150,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="93" t="s">
         <v>117</v>
@@ -8179,7 +8200,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="93" t="s">
         <v>267</v>
@@ -8229,7 +8250,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="101" t="s">
         <v>249</v>
@@ -8279,7 +8300,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="266" t="s">
         <v>250</v>
@@ -8329,7 +8350,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="266" t="s">
         <v>251</v>
@@ -8379,1253 +8400,1253 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
@@ -9670,11 +9691,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -9682,11 +9703,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>19</v>
@@ -9702,7 +9723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -9720,13 +9741,13 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>187241607</v>
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -9742,7 +9763,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
@@ -9757,7 +9778,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="str">
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
@@ -9783,7 +9804,7 @@
       <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="str">
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in USD</v>
@@ -9807,13 +9828,13 @@
       <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>27</v>
@@ -9833,7 +9854,7 @@
       <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>28</v>
       </c>
@@ -9858,7 +9879,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
@@ -9886,7 +9907,7 @@
       <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
@@ -9914,7 +9935,7 @@
       <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>111</v>
       </c>
@@ -9942,7 +9963,7 @@
       <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -9970,7 +9991,7 @@
       <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -9997,7 +10018,7 @@
       </c>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
@@ -10019,7 +10040,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>112</v>
       </c>
@@ -10041,7 +10062,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="86"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -10062,7 +10083,7 @@
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
@@ -10087,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>114</v>
       </c>
@@ -10114,7 +10135,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -10135,7 +10156,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -10161,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="86"/>
       <c r="D23" s="86"/>
       <c r="E23" s="86"/>
@@ -10170,7 +10191,7 @@
       </c>
       <c r="G23" s="86"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>48</v>
       </c>
@@ -10192,7 +10213,7 @@
       </c>
       <c r="G24" s="86"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>50</v>
       </c>
@@ -10221,7 +10242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
@@ -10254,7 +10275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
@@ -10287,7 +10308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10317,7 +10338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
@@ -10329,7 +10350,7 @@
       <c r="I29" s="86"/>
       <c r="J29" s="86"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
@@ -10355,7 +10376,7 @@
       </c>
       <c r="J30" s="86"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
@@ -10382,7 +10403,7 @@
       </c>
       <c r="J31" s="86"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
@@ -10409,7 +10430,7 @@
       </c>
       <c r="J32" s="86"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
@@ -10439,7 +10460,7 @@
       </c>
       <c r="J33" s="86"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
@@ -10466,7 +10487,7 @@
       </c>
       <c r="J34" s="86"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
@@ -10492,7 +10513,7 @@
       </c>
       <c r="J35" s="86"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
@@ -10519,7 +10540,7 @@
       <c r="H36" s="86"/>
       <c r="I36" s="86"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
@@ -10546,7 +10567,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>113</v>
       </c>
@@ -10567,7 +10588,7 @@
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
@@ -10588,7 +10609,7 @@
       <c r="H39" s="86"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -10609,7 +10630,7 @@
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>70</v>
       </c>
@@ -10630,7 +10651,7 @@
       <c r="H41" s="86"/>
       <c r="I41" s="86"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>71</v>
       </c>
@@ -10656,7 +10677,7 @@
         <v>160836513</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="86"/>
       <c r="D43" s="86"/>
       <c r="E43" s="86"/>
@@ -10665,7 +10686,7 @@
       <c r="H43" s="86"/>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>72</v>
       </c>
@@ -10684,7 +10705,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="86"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>74</v>
       </c>
@@ -10703,7 +10724,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="86"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>75</v>
       </c>
@@ -10733,7 +10754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>77</v>
       </c>
@@ -10763,11 +10784,11 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10784,13 +10805,13 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>160836513</v>
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -10817,20 +10838,20 @@
       </c>
       <c r="J49" s="86"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="86"/>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>83</v>
       </c>
@@ -10847,7 +10868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
@@ -10868,7 +10889,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="86"/>
@@ -10877,7 +10898,7 @@
       <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>141</v>
       </c>
@@ -10888,53 +10909,53 @@
       <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
       <c r="E59" s="86"/>
@@ -10943,7 +10964,7 @@
       <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>144</v>
       </c>
@@ -10957,7 +10978,7 @@
       <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>90</v>
       </c>
@@ -10978,7 +10999,7 @@
       <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>133</v>
       </c>
@@ -10999,7 +11020,7 @@
       <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>135</v>
       </c>
@@ -11020,7 +11041,7 @@
       <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="119" t="s">
         <v>142</v>
       </c>
@@ -11035,7 +11056,7 @@
       <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
@@ -11056,7 +11077,7 @@
       <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11066,7 +11087,7 @@
       <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>145</v>
       </c>
@@ -11080,7 +11101,7 @@
       <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>134</v>
       </c>
@@ -11101,7 +11122,7 @@
       <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="119" t="s">
         <v>143</v>
       </c>
@@ -11116,7 +11137,7 @@
       <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>137</v>
       </c>
@@ -11137,48 +11158,48 @@
       <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
@@ -11199,7 +11220,7 @@
       <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="103" t="s">
         <v>101</v>
       </c>
@@ -11229,7 +11250,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>91</v>
       </c>
@@ -11250,7 +11271,7 @@
       <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="103" t="s">
         <v>229</v>
       </c>
@@ -11280,7 +11301,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>160</v>
       </c>
@@ -11310,7 +11331,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="251" t="s">
         <v>216</v>
       </c>
@@ -11341,7 +11362,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>105</v>
       </c>
@@ -11373,7 +11394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="103" t="s">
         <v>237</v>
       </c>
@@ -11403,7 +11424,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>228</v>
       </c>
@@ -11433,7 +11454,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="104" t="s">
         <v>119</v>
       </c>
@@ -11463,7 +11484,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>92</v>
       </c>
@@ -11484,7 +11505,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="258" t="s">
         <v>155</v>
       </c>
@@ -11515,7 +11536,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="86" t="s">
         <v>151</v>
       </c>
@@ -11536,28 +11557,28 @@
       <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="86" t="s">
         <v>193</v>
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3710197431989943E-2</v>
+        <v>4.2481355147657926E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3710197431989943E-2</v>
+        <v>4.2481355147657926E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3710197431989943E-2</v>
+        <v>4.2481355147657926E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="85" t="s">
         <v>192</v>
       </c>
@@ -11587,7 +11608,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="86" t="s">
         <v>205</v>
       </c>
@@ -11608,11 +11629,11 @@
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="87"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -11623,7 +11644,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>146</v>
       </c>
@@ -11634,18 +11655,18 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -11663,18 +11684,18 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.865604461660453</v>
+        <v>95.236206618504482</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.865604461660453</v>
+        <v>95.236206618504482</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
@@ -11702,11 +11723,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -11735,31 +11756,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66191763.917998403</v>
+        <v>65757187.26583387</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.662148253645519</v>
+        <v>47.349226288781445</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.662148253645519</v>
+        <v>47.349226288781445</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>63.388995201003901</v>
+        <v>62.972819899305449</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>138</v>
       </c>
@@ -11777,7 +11798,7 @@
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
@@ -11798,41 +11819,41 @@
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>66191763.917998403</v>
+        <v>65757187.26583387</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.512826015598691</v>
+        <v>40.246842345464231</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.662148253645519</v>
+        <v>47.349226288781445</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>47.662148253645519</v>
+        <v>47.349226288781445</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.662148253645519</v>
+        <v>47.349226288781445</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>63.388995201003901</v>
+        <v>62.972819899305449</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>153</v>
       </c>
@@ -11859,7 +11880,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
@@ -11889,11 +11910,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>182</v>
       </c>
@@ -11920,40 +11941,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33095881.958999202</v>
+        <v>32878593.632916935</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>20.256413007799345</v>
+        <v>20.123421172732115</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>23.831074126822759</v>
+        <v>23.674613144390722</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>23.831074126822759</v>
+        <v>23.674613144390722</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>23.831074126822759</v>
+        <v>23.674613144390722</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>31.694497600501951</v>
+        <v>31.486409949652725</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>156</v>
       </c>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0D5AB-53AA-4767-9590-6EE5F85B27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4CD89F-DFE5-4576-88DF-698766098B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>102.42</v>
+        <v>101</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>142237.82831616001</v>
+        <v>140265.774848</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4282,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>0.13735638062159219</v>
+        <v>0.13718498249848685</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.5304938606134115</v>
+        <v>5.460630408034195</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.539738704760499</v>
+        <v>23.242375131058825</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4527,20 +4527,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.246842345464231</v>
+        <v>25.784133869065279</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>72.418742884201265</v>
+        <v>54.246269729549503</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.349226288781445</v>
+        <v>30.334275140076798</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>62.972819899305449</v>
+        <v>47.170669330043047</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9692,7 +9692,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11563,17 +11563,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2481355147657926E-2</v>
+        <v>4.3024862750093831E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2481355147657926E-2</v>
+        <v>4.3024862750093831E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2481355147657926E-2</v>
+        <v>4.3024862750093831E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11684,14 +11684,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.236206618504482</v>
+        <v>95.365577945009548</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.236206618504482</v>
+        <v>95.365577945009548</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11762,21 +11762,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>65757187.26583387</v>
+        <v>65846513.529929012</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.349226288781445</v>
+        <v>47.413546702534447</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.349226288781445</v>
+        <v>47.413546702534447</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>62.972819899305449</v>
+        <v>63.058363806747842</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11803,18 +11803,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-22064354.221022651</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-18.270848648210514</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-15.887694476704795</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11825,27 +11825,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>65757187.26583387</v>
+        <v>43782159.308906361</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.246842345464231</v>
+        <v>25.784133869065279</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.349226288781445</v>
+        <v>29.142698054323933</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>47.349226288781445</v>
+        <v>30.334275140076798</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.349226288781445</v>
+        <v>31.525852225829659</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>62.972819899305449</v>
+        <v>47.170669330043047</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11947,27 +11947,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32878593.632916935</v>
+        <v>20236253.087876476</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>20.123421172732115</v>
+        <v>12.89206693453264</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>23.674613144390722</v>
+        <v>14.571349027161967</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>23.674613144390722</v>
+        <v>15.167137570038399</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>23.674613144390722</v>
+        <v>15.76292611291483</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>31.486409949652725</v>
+        <v>23.585334665021524</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB05AE7A-5A3C-42D9-BA62-BAF1275B96BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D657647F-616A-42F4-B81B-6DB659A66172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>0.13704825937747955</v>
+        <v>0.13704575598239899</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4626,7 +4626,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.350803367423147</v>
+        <v>5.3509011097773778</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.774912386526559</v>
+        <v>22.77532841256998</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,20 +4745,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>35.576802530366642</v>
+        <v>26.940349811350256</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>60.520906577406166</v>
+        <v>54.498135921599406</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>41.855061800431343</v>
+        <v>31.694529189823832</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>52.626875284701015</v>
+        <v>47.389683410086441</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-15.871860271422964</v>
+        <v>-15.871570347734014</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-15.871860271422964</v>
+        <v>-15.871570347734014</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-15.871860271422964</v>
+        <v>-15.871570347734014</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11795,17 +11795,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.390796254353941E-2</v>
+        <v>4.3907160497764233E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.390796254353941E-2</v>
+        <v>4.3907160497764233E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.390796254353941E-2</v>
+        <v>4.3907160497764233E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11909,21 +11909,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.795432606031397</v>
+        <v>95.672416186207371</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.795432606031397</v>
+        <v>95.672416186207371</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,21 +11994,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80169420.336621374</v>
+        <v>66058374.337946989</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>57.726922071854311</v>
+        <v>47.566099537557847</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>57.726922071854311</v>
+        <v>47.566099537557847</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>68.498735556123975</v>
+        <v>63.261253757820455</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12036,17 +12036,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-22042364.150993362</v>
+        <v>-22041961.513657942</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-15.871860271422964</v>
+        <v>-15.871570347734014</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-15.871860271422964</v>
+        <v>-15.871570347734014</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12058,23 +12058,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>35.576802530366642</v>
+        <v>26.940349811350256</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>41.855061800431343</v>
+        <v>31.694529189823832</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>41.855061800431343</v>
+        <v>31.694529189823832</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>41.855061800431343</v>
+        <v>31.694529189823832</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>52.626875284701015</v>
+        <v>47.389683410086441</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12168,23 +12168,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>17.788401265183321</v>
+        <v>13.470174905675128</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>20.927530900215672</v>
+        <v>15.847264594911916</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>20.927530900215672</v>
+        <v>15.847264594911916</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>20.927530900215672</v>
+        <v>15.847264594911916</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>26.313437642350507</v>
+        <v>23.694841705043221</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D657647F-616A-42F4-B81B-6DB659A66172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E193B6-71DC-4A0C-9771-61AE4C4A8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4310,7 +4311,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4333,6 +4334,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4351,8 +4355,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4388,18 +4392,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>PDD</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4415,7 +4422,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>拼多多</v>
       </c>
@@ -4444,11 +4451,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>137307.69464576</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4471,11 +4478,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4543,10 +4550,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4593,7 +4600,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4734,10 +4741,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4745,22 +4752,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.940349811350256</v>
+        <v>31.543900533920823</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>54.498135921599406</v>
+        <v>64.960827367991925</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>31.694529189823832</v>
-      </c>
-      <c r="G29" s="312">
+        <v>37.110471216377441</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>47.389683410086441</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>56.48767597216689</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5742,15 +5749,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5778,7 +5786,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11905,7 +11913,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11916,14 +11924,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.672416186207371</v>
+        <v>106.56581010839929</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.672416186207371</v>
+        <v>106.56581010839929</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,21 +12002,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66058374.337946989</v>
+        <v>73579872.406129062</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.566099537557847</v>
+        <v>52.982041564111455</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.566099537557847</v>
+        <v>52.982041564111455</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>63.261253757820455</v>
+        <v>72.359246319900905</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12058,23 +12066,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.940349811350256</v>
+        <v>31.543900533920823</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>31.694529189823832</v>
+        <v>37.110471216377441</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>31.694529189823832</v>
+        <v>37.110471216377441</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>31.694529189823832</v>
+        <v>37.110471216377441</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>47.389683410086441</v>
+        <v>56.48767597216689</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12168,23 +12176,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.470174905675128</v>
+        <v>15.771950266960411</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>15.847264594911916</v>
+        <v>18.55523560818872</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.847264594911916</v>
+        <v>18.55523560818872</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>15.847264594911916</v>
+        <v>18.55523560818872</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>23.694841705043221</v>
+        <v>28.243837986083445</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E193B6-71DC-4A0C-9771-61AE4C4A8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{491E9368-FDB1-444B-A7B0-0D45B8FD8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4392,21 +4392,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>PDD</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4422,40 +4422,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>拼多多</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1388770048</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>137307.69464576</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4478,11 +4478,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>0.13704575598239899</v>
+        <v>0.13704513013362885</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4633,7 +4633,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.3509011097773778</v>
+        <v>5.3509255459238894</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.77532841256998</v>
+        <v>22.775432421455687</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4741,10 +4741,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4752,22 +4752,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>31.543900533920823</v>
+        <v>36.120601548624833</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>64.960827367991925</v>
+        <v>67.877381901639765</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>37.110471216377441</v>
-      </c>
-      <c r="G29" s="313">
+        <v>42.494825351323335</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>56.48767597216689</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>59.023810349251974</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5750,15 +5750,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11131,7 +11131,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11142,11 +11142,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11158,11 +11158,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-15.871570347734014</v>
+        <v>-15.871497866811778</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-15.871570347734014</v>
+        <v>-15.871497866811778</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-15.871570347734014</v>
+        <v>-15.871497866811778</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11803,17 +11803,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3907160497764233E-2</v>
+        <v>4.3906959986320437E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3907160497764233E-2</v>
+        <v>4.3906959986320437E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3907160497764233E-2</v>
+        <v>4.3906959986320437E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11917,21 +11917,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>106.56581010839929</v>
+        <v>102.08306409803839</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>106.56581010839929</v>
+        <v>102.08306409803839</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12002,21 +12002,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>73579872.406129062</v>
+        <v>81057401.497233018</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>52.982041564111455</v>
+        <v>58.366323218135115</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>52.982041564111455</v>
+        <v>58.366323218135115</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>72.359246319900905</v>
+        <v>74.895308216063754</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12044,17 +12044,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-22041961.513657942</v>
+        <v>-22041860.854324088</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-15.871570347734014</v>
+        <v>-15.871497866811778</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-15.871570347734014</v>
+        <v>-15.871497866811778</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12066,23 +12066,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>31.543900533920823</v>
+        <v>36.120601548624833</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>37.110471216377441</v>
+        <v>42.494825351323335</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>37.110471216377441</v>
+        <v>42.494825351323335</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>37.110471216377441</v>
+        <v>42.494825351323335</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>56.48767597216689</v>
+        <v>59.023810349251974</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12176,23 +12176,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>15.771950266960411</v>
+        <v>18.060300774312417</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>18.55523560818872</v>
+        <v>21.247412675661668</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>18.55523560818872</v>
+        <v>21.247412675661668</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>18.55523560818872</v>
+        <v>21.247412675661668</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>28.243837986083445</v>
+        <v>29.511905174625987</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A0649B-98C6-4C6A-8E30-6BE0222DE014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA2AF58-8D0E-46D7-9189-645549C17139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4422,27 +4422,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>PDD</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>98.87</v>
+        <v>96.89</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4452,7 +4452,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>拼多多</v>
       </c>
@@ -4481,11 +4481,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>137307.69464576</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>134557.92995071999</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4508,11 +4508,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>0.13704513013362885</v>
+        <v>0.13701195021470389</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.3509255459238894</v>
+        <v>5.2450361936170227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.775432421455687</v>
+        <v>22.324729871603562</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4771,10 +4771,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4782,22 +4782,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>36.616715295978985</v>
+        <v>36.778217236037015</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>68.899884111842738</v>
+        <v>69.179522974020585</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>43.078488583504686</v>
-      </c>
-      <c r="G29" s="313">
+        <v>43.268490865925905</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>59.912942705950215</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>60.156106933930943</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5780,15 +5780,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-15.871497866811778</v>
+        <v>-15.867655227442356</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-15.871497866811778</v>
+        <v>-15.867655227442356</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-15.871497866811778</v>
+        <v>-15.867655227442356</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11935,17 +11935,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3906959986320437E-2</v>
+        <v>4.4793375138302227E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3906959986320437E-2</v>
+        <v>4.4793375138302227E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3906959986320437E-2</v>
+        <v>4.4793375138302227E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12056,14 +12056,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>103.10389473901878</v>
+        <v>103.42948911821414</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>103.10389473901878</v>
+        <v>103.42948911821414</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12134,21 +12134,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>81867975.512205347</v>
+        <v>82126508.448622048</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>58.949986450316466</v>
+        <v>59.136146093368261</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>58.949986450316466</v>
+        <v>59.136146093368261</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>75.784440572761994</v>
+        <v>76.023762161373298</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12176,17 +12176,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-22041860.854324088</v>
+        <v>-22036524.311862573</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-15.871497866811778</v>
+        <v>-15.867655227442356</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-15.871497866811778</v>
+        <v>-15.867655227442356</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12198,23 +12198,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>36.616715295978985</v>
+        <v>36.778217236037015</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>43.078488583504686</v>
+        <v>43.268490865925905</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>43.078488583504686</v>
+        <v>43.268490865925905</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>43.078488583504686</v>
+        <v>43.268490865925905</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>59.912942705950215</v>
+        <v>60.156106933930943</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12308,23 +12308,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>18.308357647989492</v>
+        <v>18.389108618018508</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>21.539244291752343</v>
+        <v>21.634245432962953</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>21.539244291752343</v>
+        <v>21.634245432962953</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>21.539244291752343</v>
+        <v>21.634245432962953</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>29.956471352975107</v>
+        <v>30.078053466965471</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/PDD_Valuation.xlsx
+++ b/financial_models/opportunities/PDD_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA2AF58-8D0E-46D7-9189-645549C17139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518D4833-9803-4D2B-BF1D-4FAE025106BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4422,27 +4422,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>PDD</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>96.89</v>
+        <v>95.98</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4452,40 +4452,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>拼多多</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1388770048</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45643</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>134557.92995071999</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>133294.14920704</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4508,11 +4508,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>0.13701195021470389</v>
+        <v>0.13640642662843069</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>5.2450361936170227</v>
+        <v>5.2188389510107438</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.324729871603562</v>
+        <v>22.21322513779872</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4771,10 +4771,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4782,22 +4782,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>36.778217236037015</v>
+        <v>36.658769779899757</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>69.179522974020585</v>
+        <v>68.948737407265867</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>43.268490865925905</v>
-      </c>
-      <c r="G29" s="314">
+        <v>43.127964446940894</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>60.156106933930943</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>59.955423832405103</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5780,15 +5780,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11263,7 +11263,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11274,11 +11274,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11290,11 +11290,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-15.867655227442356</v>
+        <v>-15.797528209441293</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-15.867655227442356</v>
+        <v>-15.797528209441293</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-15.867655227442356</v>
+        <v>-15.797528209441293</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11935,17 +11935,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4793375138302227E-2</v>
+        <v>4.5018226475288754E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4793375138302227E-2</v>
+        <v>4.5018226475288754E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4793375138302227E-2</v>
+        <v>4.5018226475288754E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12056,14 +12056,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>103.42948911821414</v>
+        <v>103.06105494034151</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>103.42948911821414</v>
+        <v>103.06105494034151</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12134,21 +12134,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>82126508.448622048</v>
+        <v>81833959.264827535</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>59.136146093368261</v>
+        <v>58.925492656382183</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>59.136146093368261</v>
+        <v>58.925492656382183</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>76.023762161373298</v>
+        <v>75.752952041846399</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12176,17 +12176,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-22036524.311862573</v>
+        <v>-21939134.009707138</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-15.867655227442356</v>
+        <v>-15.797528209441293</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-15.867655227442356</v>
+        <v>-15.797528209441293</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12198,23 +12198,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>36.778217236037015</v>
+        <v>36.658769779899757</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>43.268490865925905</v>
+        <v>43.127964446940894</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>43.268490865925905</v>
+        <v>43.127964446940894</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>43.268490865925905</v>
+        <v>43.127964446940894</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>60.156106933930943</v>
+        <v>59.955423832405103</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12308,23 +12308,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>18.389108618018508</v>
+        <v>18.329384889949878</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>21.634245432962953</v>
+        <v>21.563982223470447</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>21.634245432962953</v>
+        <v>21.563982223470447</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>21.634245432962953</v>
+        <v>21.563982223470447</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>30.078053466965471</v>
+        <v>29.977711916202551</v>
       </c>
       <c r="K106" s="75"/>
     </row>
